--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -819,7 +819,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6904832986</x:v>
+        <x:v>45918.9877018171</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -938,11 +938,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Introduction to Design Thinking (GENS009) Location : [51202]51202-60-الشيخ زايد Time : Wednesday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Introduction to Design Thinking (GENS009) Location : [51219]51219-صالة رسم-الشيخ زايد Time : Wednesday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Introduction to Design Thinking (GENS009) Location : [51202]51202-60-الشيخ زايد Time : Wednesday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Introduction to Design Thinking (GENS009) Location : [51219]51219-صالة رسم-الشيخ زايد Time : Wednesday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Introduction to Design Thinking (GENS009) Location : [51202]51202-60-الشيخ زايد Time : Wednesday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Introduction to Design Thinking (GENS009) Location : [51219]51219-صالة رسم-الشيخ زايد Time : Wednesday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -51,6 +51,15 @@
     <x:t>Ayman Amged</x:t>
   </x:si>
   <x:si>
+    <x:t>4250168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بثينه احمد محمد جندى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bothaina Ahmed Mohammed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240222</x:t>
   </x:si>
   <x:si>
@@ -112,15 +121,6 @@
   </x:si>
   <x:si>
     <x:t>Maya Adel Hamed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود احمد محمود احمد شكرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Ahmed Mahmoud Ahmed shokry</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -691,7 +691,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.667172419</x:v>
+        <x:v>45919.9748653935</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -723,7 +723,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.9934914005</x:v>
+        <x:v>45907.667172419</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -755,7 +755,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.9926142014</x:v>
+        <x:v>45914.9934914005</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -787,7 +787,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.9938840278</x:v>
+        <x:v>45914.9926142014</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -819,7 +819,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45918.9877018171</x:v>
+        <x:v>45914.9938840278</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -851,7 +851,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.5126134606</x:v>
+        <x:v>45918.9877018171</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -883,7 +883,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45915.5126134606</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -915,7 +915,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45917.9596135417</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>Ayman Amged</x:t>
   </x:si>
   <x:si>
+    <x:t>1250021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ايمى جرجس غطاس ثابت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emmy Gerges Ghatas Thabet</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250168</x:t>
   </x:si>
   <x:si>
@@ -60,6 +69,24 @@
     <x:t>Bothaina Ahmed Mohammed</x:t>
   </x:si>
   <x:si>
+    <x:t>1250223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جومانه حسن محمد حسن عبد البر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joumanah Hassan Mohamed Hassan Abdel Bar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رانيا هشام مشحوت عبدالعزيز السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rania Hesham abdelaziz</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240222</x:t>
   </x:si>
   <x:si>
@@ -69,6 +96,33 @@
     <x:t>Ruba Maged Ahmad Abou-sarie</x:t>
   </x:si>
   <x:si>
+    <x:t>1250041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رنا اسامه حسن محمد البردونى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana Ossama Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى سامح فريد سعد عيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Sameh Farid Saad Eid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى سمير السيد حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Samir Elsayed  Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240072</x:t>
   </x:si>
   <x:si>
@@ -78,6 +132,15 @@
     <x:t>Salma Youssef Abdelhakim Elsayed Youssef</x:t>
   </x:si>
   <x:si>
+    <x:t>1250065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علا محمد عبدالفتاح جاد هاشم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ola Mohammad Abdelfattah Gad Hashem</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240239</x:t>
   </x:si>
   <x:si>
@@ -121,6 +184,69 @@
   </x:si>
   <x:si>
     <x:t>Maya Adel Hamed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد مصطفى محمد عبد العزيز احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Mostafa Mohamed Abdelaziz AhmedD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مرام محمد السيد ابراهيم السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maram Mohamed Elsayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم احمد عبد المعز احمد حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryam Ahmed AbdelMoez Ahmed Hussein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم عبدالهادى صالح عطيه على بركات</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam abdelhady</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم محمد على محمد الهلالى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Muhammad Ali Muhammad ElHelaly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مى احمد على محمد حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mai Ahmed Ali Mohammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور احمد قدرى ابراهيم عمار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Noor Ahmed Kadry Ibrahim Ammar</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -236,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -536,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T11"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -691,7 +817,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45919.9748653935</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -723,7 +849,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.667172419</x:v>
+        <x:v>45919.9748653935</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -755,7 +881,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.9934914005</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -787,7 +913,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.9926142014</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -819,7 +945,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.9938840278</x:v>
+        <x:v>45907.667172419</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -851,7 +977,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45918.9877018171</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -883,7 +1009,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.5126134606</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -915,7 +1041,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -932,6 +1058,454 @@
       <x:c r="R11" s="2" t="s"/>
       <x:c r="S11" s="2" t="s"/>
       <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45914.9934914005</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45920.9667569097</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45914.9926142014</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45914.9938840278</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45918.9877018171</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45915.5126134606</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45917.9596135417</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45920.9667569097</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45920.9667569097</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45920.9667569097</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45920.9667569097</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45920.9667569097</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45920.9667569097</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45920.9667569097</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Rana Ossama Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روضة  عماد خيري رجب شعراوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rawda emad khairy</x:t>
   </x:si>
   <x:si>
     <x:t>1250050</x:t>
@@ -362,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1009,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45924.4207607292</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1073,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.9934914005</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45914.9934914005</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.9926142014</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.9938840278</x:v>
+        <x:v>45914.9926142014</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.9877018171</x:v>
+        <x:v>45914.9938840278</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.5126134606</x:v>
+        <x:v>45918.9877018171</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45915.5126134606</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45917.9596135417</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1506,6 +1515,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45920.9667569097</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Emmy Gerges Ghatas Thabet</x:t>
   </x:si>
   <x:si>
+    <x:t>1250364</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ايه ماهر محسن عبده احمد الشربيني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aya maher mohsen el sherbini</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250168</x:t>
   </x:si>
   <x:si>
@@ -69,6 +78,15 @@
     <x:t>Bothaina Ahmed Mohammed</x:t>
   </x:si>
   <x:si>
+    <x:t>1250273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنا حاتم حسن على إبراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana Hatem Hassan Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250223</x:t>
   </x:si>
   <x:si>
@@ -114,6 +132,24 @@
     <x:t>rawda emad khairy</x:t>
   </x:si>
   <x:si>
+    <x:t>1250290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ساره محسن سامي يعقوب قلاده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sarah Mohsen Samy Yakoub kelada</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ساره مصطفي عبدالرازق السيد صالح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sara Moustafa Abdelrazek Elsayed Saleh</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250050</x:t>
   </x:si>
   <x:si>
@@ -177,6 +213,15 @@
     <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
+    <x:t>1250317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر هشام محمد محمد حامد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar hesham mohamed mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240246</x:t>
   </x:si>
   <x:si>
@@ -186,6 +231,24 @@
     <x:t>Ahd Ahmed Mohamed Ibrahim Ahmed AbdelKader</x:t>
   </x:si>
   <x:si>
+    <x:t>1250426</x:t>
+  </x:si>
+  <x:si>
+    <x:t>لورينا اسعد سامى ميخائيل عبيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lorina Asaad Samy Mechael</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مالك يحيي محمد يحيي عبد اللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Malik Yehia Mohamed Yehia</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250210</x:t>
   </x:si>
   <x:si>
@@ -195,6 +258,15 @@
     <x:t>Maya Adel Hamed Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1250333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو السيد عبدالخالق محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Amr Elsayed Abdelkhalek Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250099</x:t>
   </x:si>
   <x:si>
@@ -204,6 +276,15 @@
     <x:t>Mohamed Mostafa Mohamed Abdelaziz AhmedD</x:t>
   </x:si>
   <x:si>
+    <x:t>1250335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد هيثم صبح عبد الوهاب محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Haytham Sobh Abdelwahab Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250150</x:t>
   </x:si>
   <x:si>
@@ -222,6 +303,15 @@
     <x:t>Maryam Ahmed AbdelMoez Ahmed Hussein</x:t>
   </x:si>
   <x:si>
+    <x:t>1250339</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم اسامه حامد محمود احمد يونس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mariam osama hamed mahmoud ahmed younes</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250110</x:t>
   </x:si>
   <x:si>
@@ -231,6 +321,15 @@
     <x:t>Mariam abdelhady</x:t>
   </x:si>
   <x:si>
+    <x:t>1250341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم محمد ابراهيم عبد الله الغباشي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Mohamed Ibrahim Abdullah Elghobashy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250112</x:t>
   </x:si>
   <x:si>
@@ -240,6 +339,15 @@
     <x:t>Mariam Muhammad Ali Muhammad ElHelaly</x:t>
   </x:si>
   <x:si>
+    <x:t>1250343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك أحمد محمد سمير عبد العزيز محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Malak Ahmed Mohamed Samir</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250118</x:t>
   </x:si>
   <x:si>
@@ -249,6 +357,15 @@
     <x:t>Mai Ahmed Ali Mohammed</x:t>
   </x:si>
   <x:si>
+    <x:t>1250347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نبيل محمد سناء الدين محمد سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nabil Mohamed sanaa eldin</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250121</x:t>
   </x:si>
   <x:si>
@@ -256,6 +373,24 @@
   </x:si>
   <x:si>
     <x:t>Noor Ahmed Kadry Ibrahim Ammar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نورين صلاح محمد صبحى احمد دعبس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Noureen Salah Mohamed Sobhy Ahmed Deabes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250394</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هنا شريف محمد حسين غالي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hana Sherif Mohamed Ghaly</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -371,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +806,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -858,7 +993,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45919.9748653935</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -890,7 +1025,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45919.9748653935</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -922,7 +1057,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -954,7 +1089,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.667172419</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1018,7 +1153,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45924.4207607292</x:v>
+        <x:v>45907.667172419</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1082,7 +1217,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45924.4207607292</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1249,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.9934914005</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1281,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1313,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.9926142014</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1345,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.9938840278</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1377,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.9877018171</x:v>
+        <x:v>45914.9934914005</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1409,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.5126134606</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1441,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45914.9926142014</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1473,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45914.9938840278</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1505,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45918.9877018171</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1537,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1569,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45915.5126134606</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1601,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1633,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1665,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45917.9596135417</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1548,6 +1683,486 @@
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
     </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45920.9667569097</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45920.9667569097</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45920.9667569097</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45920.9667569097</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45920.9667569097</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45920.9667569097</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45920.9667569097</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1560,6 +2175,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Introduction to Design Thinking (GENS009) Location : [51219]51219-صالة رسم-الشيخ زايد Time : Wednesday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,6 +114,15 @@
     <x:t>Ruba Maged Ahmad Abou-sarie</x:t>
   </x:si>
   <x:si>
+    <x:t>1230187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رقية احمد مجدي محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rokaya Ahmed Magdy Mahmoud</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250041</x:t>
   </x:si>
   <x:si>
@@ -373,6 +382,15 @@
   </x:si>
   <x:si>
     <x:t>Noor Ahmed Kadry Ibrahim Ammar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين كمال عبدالحميد حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour El Din Kamal Abdel Hamid</x:t>
   </x:si>
   <x:si>
     <x:t>1250351</x:t>
@@ -506,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1185,7 +1203,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.710700081</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1217,7 +1235,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45924.4207607292</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1249,7 +1267,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45924.4207607292</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1313,7 +1331,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1377,7 +1395,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.9934914005</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1409,7 +1427,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45914.9934914005</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1441,7 +1459,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.9926142014</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1473,7 +1491,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.9938840278</x:v>
+        <x:v>45914.9926142014</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1505,7 +1523,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.9877018171</x:v>
+        <x:v>45914.9938840278</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1537,7 +1555,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45918.9877018171</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1569,7 +1587,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.5126134606</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1601,7 +1619,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45915.5126134606</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1665,7 +1683,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1697,7 +1715,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45917.9596135417</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1729,7 +1747,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1761,7 +1779,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1793,7 +1811,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1857,7 +1875,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1889,7 +1907,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1921,7 +1939,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1953,7 +1971,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1985,7 +2003,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2017,7 +2035,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2049,7 +2067,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2081,7 +2099,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2113,7 +2131,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2145,7 +2163,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45926.8282145833</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2162,6 +2180,70 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -213,15 +213,6 @@
     <x:t>Omar Essam Abotaleb Elnaggar</x:t>
   </x:si>
   <x:si>
-    <x:t>1240111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omar mohamed salaheldeen</x:t>
-  </x:si>
-  <x:si>
     <x:t>1250317</x:t>
   </x:si>
   <x:si>
@@ -373,6 +364,15 @@
   </x:si>
   <x:si>
     <x:t>Nabil Mohamed sanaa eldin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250348</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ندي محمد علاء محمد عبدالمنصف هجرس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nada Mohamed Alaa Mohamed Abdelmonsef</x:t>
   </x:si>
   <x:si>
     <x:t>1250121</x:t>
@@ -832,7 +832,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.610625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.810625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.220625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1555,7 +1555,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.9877018171</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1587,7 +1587,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45915.5126134606</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1619,7 +1619,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.5126134606</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1683,7 +1683,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45917.9596135417</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1715,7 +1715,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1747,7 +1747,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1779,7 +1779,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1811,7 +1811,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1875,7 +1875,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1907,7 +1907,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1939,7 +1939,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1971,7 +1971,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2003,7 +2003,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2035,7 +2035,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2067,7 +2067,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2099,7 +2099,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Rana Ossama Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رنا ايمن وفائي محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana Ayman Wafaey</x:t>
   </x:si>
   <x:si>
     <x:t>1240310</x:t>
@@ -524,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -824,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1267,7 +1276,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45924.4207607292</x:v>
+        <x:v>45927.7717535069</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1299,7 +1308,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45924.4207607292</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1363,7 +1372,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1427,7 +1436,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.9934914005</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1459,7 +1468,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45914.9934914005</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1491,7 +1500,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.9926142014</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1523,7 +1532,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.9938840278</x:v>
+        <x:v>45914.9926142014</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1555,7 +1564,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45914.9938840278</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1587,7 +1596,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.5126134606</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1619,7 +1628,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45915.5126134606</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1683,7 +1692,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1715,7 +1724,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45917.9596135417</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1747,7 +1756,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1779,7 +1788,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1811,7 +1820,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1875,7 +1884,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1907,7 +1916,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1939,7 +1948,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1971,7 +1980,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2003,7 +2012,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2035,7 +2044,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2067,7 +2076,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2099,7 +2108,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2131,7 +2140,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2163,7 +2172,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45926.8282145833</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2195,7 +2204,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45926.8282145833</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2244,6 +2253,38 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Aya maher mohsen el sherbini</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بثينه احمد محمد جندى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bothaina Ahmed Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1250273</x:t>
@@ -533,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1052,7 +1043,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45919.9748653935</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1084,7 +1075,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1148,7 +1139,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45907.667172419</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1180,7 +1171,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.667172419</x:v>
+        <x:v>45926.710700081</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1212,7 +1203,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45926.710700081</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1244,7 +1235,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45927.7717535069</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1276,7 +1267,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.7717535069</x:v>
+        <x:v>45924.4207607292</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1308,7 +1299,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45924.4207607292</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1372,7 +1363,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1436,7 +1427,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45914.9934914005</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1468,7 +1459,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.9934914005</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1500,7 +1491,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45914.9926142014</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1532,7 +1523,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.9926142014</x:v>
+        <x:v>45914.9938840278</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1564,7 +1555,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.9938840278</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1596,7 +1587,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45915.5126134606</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1628,7 +1619,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.5126134606</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1692,7 +1683,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45917.9596135417</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1724,7 +1715,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1756,7 +1747,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1788,7 +1779,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1820,7 +1811,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1884,7 +1875,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1916,7 +1907,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1948,7 +1939,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1980,7 +1971,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2012,7 +2003,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2044,7 +2035,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2076,7 +2067,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2108,7 +2099,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2140,7 +2131,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2172,7 +2163,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.8282145833</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2204,7 +2195,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45926.8282145833</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2253,38 +2244,6 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45926.6475427894</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -159,6 +159,15 @@
     <x:t>Sara Moustafa Abdelrazek Elsayed Saleh</x:t>
   </x:si>
   <x:si>
+    <x:t>4250176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ساندرا رافت بشاى سعد حنا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sandra Rafaat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250050</x:t>
   </x:si>
   <x:si>
@@ -229,6 +238,15 @@
   </x:si>
   <x:si>
     <x:t>Ahd Ahmed Mohamed Ibrahim Ahmed AbdelKader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>لوجين طارق  أحمد فتحى محمدى احمد هيكل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lujain Tarek Ahmed Haikal</x:t>
   </x:si>
   <x:si>
     <x:t>1250426</x:t>
@@ -524,7 +542,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -824,7 +842,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -832,7 +850,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.810625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="32.880625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.220625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1363,7 +1381,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45928.8220823727</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1427,7 +1445,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.9934914005</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1459,7 +1477,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45914.9934914005</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1491,7 +1509,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.9926142014</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1523,7 +1541,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.9938840278</x:v>
+        <x:v>45914.9926142014</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1555,7 +1573,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45914.9938840278</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1587,7 +1605,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.5126134606</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1619,7 +1637,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45915.5126134606</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1651,7 +1669,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45926.6329215625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1683,7 +1701,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1747,7 +1765,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45917.9596135417</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1843,7 +1861,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1875,7 +1893,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2099,7 +2117,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2131,7 +2149,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2163,7 +2181,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45926.8282145833</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2195,7 +2213,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2227,7 +2245,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45926.8282145833</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2244,6 +2262,70 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>4240007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امجد محمد شعبان عبدالوهاب محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amgad Mohamed Shaaban</x:t>
+  </x:si>
+  <x:si>
     <x:t>1200967</x:t>
   </x:si>
   <x:si>
@@ -69,6 +78,15 @@
     <x:t>Aya maher mohsen el sherbini</x:t>
   </x:si>
   <x:si>
+    <x:t>1240212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم اسامه محمد عبدالفتاح عثمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tasnim Osama Mohamed Abdelfatah Othman</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250273</x:t>
   </x:si>
   <x:si>
@@ -373,6 +391,15 @@
   </x:si>
   <x:si>
     <x:t>Mai Ahmed Ali Mohammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ميرنا  عمرو محمد ربيع صابر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Merna Amr Saber</x:t>
   </x:si>
   <x:si>
     <x:t>1250347</x:t>
@@ -542,7 +569,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -842,7 +869,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -933,7 +960,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.4508007755</x:v>
+        <x:v>45929.9376835301</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -965,7 +992,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.9930603819</x:v>
+        <x:v>45906.4508007755</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -997,7 +1024,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45914.9930603819</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1029,7 +1056,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1093,7 +1120,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45929.9339890046</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1125,7 +1152,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1157,7 +1184,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.667172419</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1189,7 +1216,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45926.710700081</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1221,7 +1248,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45907.667172419</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1253,7 +1280,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.7717535069</x:v>
+        <x:v>45926.710700081</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1285,7 +1312,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45924.4207607292</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1317,7 +1344,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45927.7717535069</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1349,7 +1376,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45924.4207607292</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1381,7 +1408,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45928.8220823727</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1413,7 +1440,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1445,7 +1472,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45928.8220823727</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1477,7 +1504,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.9934914005</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1541,7 +1568,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.9926142014</x:v>
+        <x:v>45914.9934914005</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1573,7 +1600,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.9938840278</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1605,7 +1632,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45914.9926142014</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1637,7 +1664,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.5126134606</x:v>
+        <x:v>45914.9938840278</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1669,7 +1696,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45926.6329215625</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1701,7 +1728,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45915.5126134606</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1733,7 +1760,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45926.6329215625</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1765,7 +1792,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1829,7 +1856,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45917.9596135417</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1925,7 +1952,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1957,7 +1984,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2181,7 +2208,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2213,7 +2240,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45929.9348143519</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2245,7 +2272,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45926.8282145833</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2277,7 +2304,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2309,7 +2336,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2326,6 +2353,102 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45926.8282145833</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>4240007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>امجد محمد شعبان عبدالوهاب محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amgad Mohamed Shaaban</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200967</x:t>
   </x:si>
   <x:si>
@@ -256,6 +247,15 @@
   </x:si>
   <x:si>
     <x:t>Ahd Ahmed Mohamed Ibrahim Ahmed AbdelKader</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>لجين فتحى احمد محمد حنفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lujain Fathy Ahmed Mohamed Hanafi</x:t>
   </x:si>
   <x:si>
     <x:t>1250425</x:t>
@@ -960,7 +960,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45929.9376835301</x:v>
+        <x:v>45906.4508007755</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -992,7 +992,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4508007755</x:v>
+        <x:v>45914.9930603819</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1024,7 +1024,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.9930603819</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1056,7 +1056,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1088,7 +1088,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45929.9339890046</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1120,7 +1120,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45929.9339890046</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1152,7 +1152,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1216,7 +1216,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45907.667172419</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1248,7 +1248,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.667172419</x:v>
+        <x:v>45926.710700081</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1280,7 +1280,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45926.710700081</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1312,7 +1312,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45927.7717535069</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1344,7 +1344,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.7717535069</x:v>
+        <x:v>45924.4207607292</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1376,7 +1376,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45924.4207607292</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1440,7 +1440,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45928.8220823727</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1472,7 +1472,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45928.8220823727</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1536,7 +1536,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45914.9934914005</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1568,7 +1568,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.9934914005</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1600,7 +1600,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45914.9926142014</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1632,7 +1632,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.9926142014</x:v>
+        <x:v>45914.9938840278</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1664,7 +1664,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.9938840278</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1696,7 +1696,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45915.5126134606</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1728,7 +1728,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.5126134606</x:v>
+        <x:v>45918.4944033218</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -249,6 +249,15 @@
     <x:t>Ahd Ahmed Mohamed Ibrahim Ahmed AbdelKader</x:t>
   </x:si>
   <x:si>
+    <x:t>1250461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فريده حازم حمدى ربيع خليل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farida Hazem Hamdy Rabie</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250187</x:t>
   </x:si>
   <x:si>
@@ -391,15 +400,6 @@
   </x:si>
   <x:si>
     <x:t>Mai Ahmed Ali Mohammed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240380</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ميرنا  عمرو محمد ربيع صابر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Merna Amr Saber</x:t>
   </x:si>
   <x:si>
     <x:t>1250347</x:t>
@@ -1728,7 +1728,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45918.4944033218</x:v>
+        <x:v>45931.5081189468</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1760,7 +1760,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45926.6329215625</x:v>
+        <x:v>45918.4944033218</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1792,7 +1792,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45926.6329215625</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1856,7 +1856,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1888,7 +1888,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45917.9596135417</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1920,7 +1920,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1952,7 +1952,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1984,7 +1984,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2048,7 +2048,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2080,7 +2080,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2112,7 +2112,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2144,7 +2144,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2176,7 +2176,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2208,7 +2208,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2240,7 +2240,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45929.9348143519</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,15 +69,6 @@
     <x:t>Aya maher mohsen el sherbini</x:t>
   </x:si>
   <x:si>
-    <x:t>1240212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>تسنيم اسامه محمد عبدالفتاح عثمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tasnim Osama Mohamed Abdelfatah Othman</x:t>
-  </x:si>
-  <x:si>
     <x:t>1250273</x:t>
   </x:si>
   <x:si>
@@ -256,15 +247,6 @@
   </x:si>
   <x:si>
     <x:t>Farida Hazem Hamdy Rabie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>لجين فتحى احمد محمد حنفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lujain Fathy Ahmed Mohamed Hanafi</x:t>
   </x:si>
   <x:si>
     <x:t>1250425</x:t>
@@ -569,7 +551,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -869,7 +851,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1088,7 +1070,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45929.9339890046</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1120,7 +1102,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1184,7 +1166,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45907.667172419</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1216,7 +1198,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.667172419</x:v>
+        <x:v>45926.710700081</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1248,7 +1230,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45926.710700081</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1280,7 +1262,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45927.7717535069</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1312,7 +1294,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.7717535069</x:v>
+        <x:v>45924.4207607292</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1344,7 +1326,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45924.4207607292</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1408,7 +1390,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45928.8220823727</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1440,7 +1422,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45928.8220823727</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1504,7 +1486,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45914.9934914005</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1536,7 +1518,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.9934914005</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1568,7 +1550,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45914.9926142014</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1600,7 +1582,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.9926142014</x:v>
+        <x:v>45914.9938840278</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1632,7 +1614,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.9938840278</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1664,7 +1646,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45915.5126134606</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1696,7 +1678,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.5126134606</x:v>
+        <x:v>45931.5081189468</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1728,7 +1710,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45931.5081189468</x:v>
+        <x:v>45926.6329215625</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1760,7 +1742,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45918.4944033218</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1792,7 +1774,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45926.6329215625</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1824,7 +1806,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45917.9596135417</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1888,7 +1870,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1984,7 +1966,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2016,7 +1998,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2240,7 +2222,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2272,7 +2254,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2304,7 +2286,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.8282145833</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2336,7 +2318,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2368,7 +2350,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45926.8282145833</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2385,70 +2367,6 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20">
-      <x:c r="A47" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="E47" s="3">
-        <x:v>45926.6475427894</x:v>
-      </x:c>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="2" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="2" t="s"/>
-      <x:c r="Q47" s="2" t="s"/>
-      <x:c r="R47" s="2" t="s"/>
-      <x:c r="S47" s="2" t="s"/>
-      <x:c r="T47" s="2" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:20">
-      <x:c r="A48" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="E48" s="3">
-        <x:v>45926.6475427894</x:v>
-      </x:c>
-      <x:c r="F48" s="2" t="s"/>
-      <x:c r="G48" s="2" t="s"/>
-      <x:c r="H48" s="2" t="s"/>
-      <x:c r="I48" s="2" t="s"/>
-      <x:c r="J48" s="2" t="s"/>
-      <x:c r="K48" s="2" t="s"/>
-      <x:c r="L48" s="2" t="s"/>
-      <x:c r="M48" s="2" t="s"/>
-      <x:c r="N48" s="2" t="s"/>
-      <x:c r="O48" s="2" t="s"/>
-      <x:c r="P48" s="2" t="s"/>
-      <x:c r="Q48" s="2" t="s"/>
-      <x:c r="R48" s="2" t="s"/>
-      <x:c r="S48" s="2" t="s"/>
-      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -42,15 +42,6 @@
     <x:t>Ingy Ahmed Ibrahim Ismail Nasr</x:t>
   </x:si>
   <x:si>
-    <x:t>2240007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ايمن امجد حسين سلام</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ayman Amged</x:t>
-  </x:si>
-  <x:si>
     <x:t>1250021</x:t>
   </x:si>
   <x:si>
@@ -67,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Aya maher mohsen el sherbini</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بثينه احمد محمد جندى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bothaina Ahmed Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1250273</x:t>
@@ -974,7 +974,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.9930603819</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1006,7 +1006,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1038,7 +1038,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45933.71895</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Joumanah Hassan Mohamed Hassan Abdel Bar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250462</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه عبد الحليم مصطفى عبد الحليم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>habiba abd el halem</x:t>
   </x:si>
   <x:si>
     <x:t>1250155</x:t>
@@ -551,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -851,7 +860,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1134,7 +1143,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45934.5025993866</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1166,7 +1175,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.667172419</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1198,7 +1207,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45926.710700081</x:v>
+        <x:v>45907.667172419</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1230,7 +1239,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.710700081</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1262,7 +1271,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.7717535069</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1294,7 +1303,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45924.4207607292</x:v>
+        <x:v>45927.7717535069</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1326,7 +1335,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45924.4207607292</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1390,7 +1399,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45928.8220823727</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1422,7 +1431,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45928.8220823727</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1486,7 +1495,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.9934914005</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1518,7 +1527,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45914.9934914005</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1550,7 +1559,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.9926142014</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1582,7 +1591,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.9938840278</x:v>
+        <x:v>45914.9926142014</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1614,7 +1623,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45914.9938840278</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1646,7 +1655,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.5126134606</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1678,7 +1687,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45931.5081189468</x:v>
+        <x:v>45915.5126134606</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1710,7 +1719,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45926.6329215625</x:v>
+        <x:v>45931.5081189468</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1742,7 +1751,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45926.6329215625</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1806,7 +1815,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1838,7 +1847,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45917.9596135417</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1870,7 +1879,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1902,7 +1911,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1934,7 +1943,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1998,7 +2007,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2030,7 +2039,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2062,7 +2071,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2094,7 +2103,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2126,7 +2135,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2158,7 +2167,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2190,7 +2199,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2222,7 +2231,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2254,7 +2263,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2286,7 +2295,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45926.8282145833</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2318,7 +2327,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45926.8282145833</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2367,6 +2376,38 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS009_Lecture-35188.xlsx
+++ b/downloaded_files/GENS009_Lecture-35188.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Jana Hatem Hassan Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنى فتحى أنور محمد ادريس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gana fathy</x:t>
   </x:si>
   <x:si>
     <x:t>1250223</x:t>
@@ -560,7 +569,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -860,7 +869,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -870,7 +879,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.880625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.220625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.240625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1111,7 +1120,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45944.5241160069</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1143,7 +1152,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45934.5025993866</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1175,7 +1184,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45934.5025993866</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1207,7 +1216,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.667172419</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1239,7 +1248,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45926.710700081</x:v>
+        <x:v>45907.667172419</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1271,7 +1280,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.710700081</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1303,7 +1312,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.7717535069</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1335,7 +1344,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45924.4207607292</x:v>
+        <x:v>45927.7717535069</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1367,7 +1376,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45924.4207607292</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1431,7 +1440,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45928.8220823727</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1463,7 +1472,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45928.8220823727</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1527,7 +1536,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.9934914005</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1559,7 +1568,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45914.9934914005</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1591,7 +1600,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.9926142014</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1623,7 +1632,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.9938840278</x:v>
+        <x:v>45914.9926142014</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1655,7 +1664,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45914.9938840278</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1687,7 +1696,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.5126134606</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1719,7 +1728,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45931.5081189468</x:v>
+        <x:v>45915.5126134606</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1751,7 +1760,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45926.6329215625</x:v>
+        <x:v>45931.5081189468</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1783,7 +1792,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45926.6329215625</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1847,7 +1856,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45917.9596135417</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1879,7 +1888,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45917.9596135417</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1911,7 +1920,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1943,7 +1952,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1975,7 +1984,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2039,7 +2048,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2071,7 +2080,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2103,7 +2112,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2135,7 +2144,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2167,7 +2176,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2199,7 +2208,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2231,7 +2240,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2263,7 +2272,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45923.861699456</x:v>
+        <x:v>45926.6475427894</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2295,7 +2304,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45920.9667569097</x:v>
+        <x:v>45923.861699456</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2327,7 +2336,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45926.8282145833</x:v>
+        <x:v>45920.9667569097</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2359,7 +2368,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45926.6475427894</x:v>
+        <x:v>45926.8282145833</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2408,6 +2417,38 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45926.6475427894</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
